--- a/src/species-data.xlsx
+++ b/src/species-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mark/Documents/every-star-wars/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5533F42A-A3C3-0749-9606-CCC3DD1C3BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F030EAB4-852C-0749-83C0-579251093225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2160" yWindow="-21100" windowWidth="25060" windowHeight="19900" xr2:uid="{796A61B3-8453-1E4C-9FE1-4A4B1D7B7881}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1089">
   <si>
     <t>appearance</t>
   </si>
@@ -2364,9 +2364,6 @@
     <t>HOUK</t>
   </si>
   <si>
-    <t>IKKRIKKIAN</t>
-  </si>
-  <si>
     <t>INLESHAT</t>
   </si>
   <si>
@@ -3187,6 +3184,123 @@
   </si>
   <si>
     <t>https://i.imgur.com/N1yB5w5.png</t>
+  </si>
+  <si>
+    <t>IKKRUKKIAN</t>
+  </si>
+  <si>
+    <t>ARGIOPID</t>
+  </si>
+  <si>
+    <t>AROBERNOS</t>
+  </si>
+  <si>
+    <t>BESTOONIAN</t>
+  </si>
+  <si>
+    <t>FREJUKE</t>
+  </si>
+  <si>
+    <t>IDALOWD</t>
+  </si>
+  <si>
+    <t>KHAMARILL</t>
+  </si>
+  <si>
+    <t>LUKOVEL</t>
+  </si>
+  <si>
+    <t>SIRRONING</t>
+  </si>
+  <si>
+    <t>SKILLA</t>
+  </si>
+  <si>
+    <t>YOKKA</t>
+  </si>
+  <si>
+    <t>JILLSARIAN</t>
+  </si>
+  <si>
+    <t>MALANGSHA</t>
+  </si>
+  <si>
+    <t>NOGRATU</t>
+  </si>
+  <si>
+    <t>QUERM RYBET</t>
+  </si>
+  <si>
+    <t>THUGGATORIS</t>
+  </si>
+  <si>
+    <t>ZEKODOAN</t>
+  </si>
+  <si>
+    <t>SIBETTAN</t>
+  </si>
+  <si>
+    <t>SURPOSSIAN</t>
+  </si>
+  <si>
+    <t>VORIDSEC</t>
+  </si>
+  <si>
+    <t>https://imgur.com/oINNxoz.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/KFXKd2J.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/NbOTSl0.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/mhKp0GB.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/zouBCKt.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/MmNhL3f.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/3yxHne1.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/TUoaFqF.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/kSZOLJc.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/CZcseAK.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/H7Fc9xV.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/IFJEhGf.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/2RCWRSS.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/BgkKafC.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/3FSfEjl.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/Bf9O14v.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/efy82nx.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/krxESxy.png</t>
+  </si>
+  <si>
+    <t>https://imgur.com/HrS2gD2.png</t>
   </si>
 </sst>
 </file>
@@ -3251,13 +3365,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3300,8 +3413,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D42C5267-212F-7C44-99B6-7AD21768AE19}" name="Table1" displayName="Table1" ref="A1:E518" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E518" xr:uid="{0353FCF5-87E6-7247-87AA-7E9047D3E838}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D42C5267-212F-7C44-99B6-7AD21768AE19}" name="Table1" displayName="Table1" ref="A1:E537" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E537" xr:uid="{0353FCF5-87E6-7247-87AA-7E9047D3E838}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E518">
     <sortCondition ref="A1:A518"/>
   </sortState>
@@ -3615,9 +3728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E63B32-29F1-B44F-93C7-4CB62822A913}">
-  <dimension ref="A1:H518"/>
+  <dimension ref="A1:H537"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C534" sqref="C534"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3679,7 +3794,7 @@
       <c r="C3">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>633</v>
       </c>
       <c r="E3">
@@ -3713,12 +3828,12 @@
         <v>597</v>
       </c>
       <c r="B5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Adarian</v>
       </c>
@@ -3790,7 +3905,7 @@
       <c r="C8">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Agarian</v>
       </c>
@@ -3814,7 +3929,7 @@
       <c r="C9">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ailon</v>
       </c>
@@ -3838,7 +3953,7 @@
       <c r="C10">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Aing-Tii</v>
       </c>
@@ -3880,7 +3995,7 @@
       <c r="C12">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Alamite</v>
       </c>
@@ -3898,7 +4013,7 @@
       <c r="C13">
         <v>18</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Alaphani</v>
       </c>
@@ -3916,7 +4031,7 @@
       <c r="C14">
         <v>9</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Alazmec</v>
       </c>
@@ -3934,7 +4049,7 @@
       <c r="C15">
         <v>18</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Alcedian</v>
       </c>
@@ -3970,7 +4085,7 @@
       <c r="C17">
         <v>17</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Aloxian</v>
       </c>
@@ -3988,7 +4103,7 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="6" t="str">
+      <c r="D18" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Altiri</v>
       </c>
@@ -4006,7 +4121,7 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D19" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Alzarian</v>
       </c>
@@ -4042,7 +4157,7 @@
       <c r="C21">
         <v>12</v>
       </c>
-      <c r="D21" s="6" t="str">
+      <c r="D21" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Anacondan</v>
       </c>
@@ -4078,7 +4193,7 @@
       <c r="C23">
         <v>18</v>
       </c>
-      <c r="D23" s="6" t="str">
+      <c r="D23" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Anselmi</v>
       </c>
@@ -4114,7 +4229,7 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="6" t="str">
+      <c r="D25" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Anzat</v>
       </c>
@@ -4204,7 +4319,7 @@
       <c r="C30">
         <v>17</v>
       </c>
-      <c r="D30" s="6" t="str">
+      <c r="D30" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Arkanian</v>
       </c>
@@ -4222,7 +4337,7 @@
       <c r="C31">
         <v>15</v>
       </c>
-      <c r="D31" s="6" t="str">
+      <c r="D31" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Arkanian Offshoot</v>
       </c>
@@ -4240,7 +4355,7 @@
       <c r="C32">
         <v>18</v>
       </c>
-      <c r="D32" s="6" t="str">
+      <c r="D32" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Arthurian</v>
       </c>
@@ -4276,7 +4391,7 @@
       <c r="C34">
         <v>18</v>
       </c>
-      <c r="D34" s="6" t="str">
+      <c r="D34" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Aruzan</v>
       </c>
@@ -4330,7 +4445,7 @@
       <c r="C37">
         <v>17</v>
       </c>
-      <c r="D37" s="6" t="str">
+      <c r="D37" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ayrou</v>
       </c>
@@ -4366,7 +4481,7 @@
       <c r="C39">
         <v>12</v>
       </c>
-      <c r="D39" s="6" t="str">
+      <c r="D39" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Balnab</v>
       </c>
@@ -4384,7 +4499,7 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="6" t="str">
+      <c r="D40" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Balosar</v>
       </c>
@@ -4402,7 +4517,7 @@
       <c r="C41">
         <v>17</v>
       </c>
-      <c r="D41" s="6" t="str">
+      <c r="D41" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Banchiian</v>
       </c>
@@ -4420,7 +4535,7 @@
       <c r="C42">
         <v>18</v>
       </c>
-      <c r="D42" s="6" t="str">
+      <c r="D42" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Barabel</v>
       </c>
@@ -4492,7 +4607,7 @@
       <c r="C46">
         <v>17</v>
       </c>
-      <c r="D46" s="6" t="str">
+      <c r="D46" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Barolian</v>
       </c>
@@ -4510,7 +4625,7 @@
       <c r="C47">
         <v>17</v>
       </c>
-      <c r="D47" s="6" t="str">
+      <c r="D47" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Battrach</v>
       </c>
@@ -4546,7 +4661,7 @@
       <c r="C49">
         <v>18</v>
       </c>
-      <c r="D49" s="6" t="str">
+      <c r="D49" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Benathy</v>
       </c>
@@ -4564,7 +4679,7 @@
       <c r="C50">
         <v>13</v>
       </c>
-      <c r="D50" s="6" t="str">
+      <c r="D50" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Bendu</v>
       </c>
@@ -4582,7 +4697,7 @@
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" s="6" t="str">
+      <c r="D51" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Besalisk</v>
       </c>
@@ -4615,7 +4730,7 @@
       <c r="B53" t="s">
         <v>269</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" t="s">
         <v>263</v>
       </c>
       <c r="E53">
@@ -4650,7 +4765,7 @@
       <c r="C55">
         <v>12</v>
       </c>
-      <c r="D55" s="6" t="str">
+      <c r="D55" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Bivall</v>
       </c>
@@ -4704,7 +4819,7 @@
       <c r="C58">
         <v>18</v>
       </c>
-      <c r="D58" s="6" t="str">
+      <c r="D58" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Bodachi</v>
       </c>
@@ -4722,7 +4837,7 @@
       <c r="C59">
         <v>17</v>
       </c>
-      <c r="D59" s="6" t="str">
+      <c r="D59" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Boltrunian</v>
       </c>
@@ -4740,7 +4855,7 @@
       <c r="C60">
         <v>17</v>
       </c>
-      <c r="D60" s="6" t="str">
+      <c r="D60" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Bonbrak</v>
       </c>
@@ -4794,7 +4909,7 @@
       <c r="C63">
         <v>17</v>
       </c>
-      <c r="D63" s="6" t="str">
+      <c r="D63" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Bpfasshi</v>
       </c>
@@ -4830,7 +4945,7 @@
       <c r="C65">
         <v>18</v>
       </c>
-      <c r="D65" s="6" t="str">
+      <c r="D65" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Brayan</v>
       </c>
@@ -4866,7 +4981,7 @@
       <c r="C67">
         <v>4</v>
       </c>
-      <c r="D67" s="6" t="str">
+      <c r="D67" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Brizzit</v>
       </c>
@@ -4902,7 +5017,7 @@
       <c r="C69">
         <v>18</v>
       </c>
-      <c r="D69" s="6" t="str">
+      <c r="D69" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Bursantian</v>
       </c>
@@ -4920,7 +5035,7 @@
       <c r="C70">
         <v>18</v>
       </c>
-      <c r="D70" s="6" t="str">
+      <c r="D70" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Caamasi</v>
       </c>
@@ -4992,7 +5107,7 @@
       <c r="C74">
         <v>18</v>
       </c>
-      <c r="D74" s="6" t="str">
+      <c r="D74" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Cathar</v>
       </c>
@@ -5010,7 +5125,7 @@
       <c r="C75">
         <v>18</v>
       </c>
-      <c r="D75" s="6" t="str">
+      <c r="D75" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Celegian</v>
       </c>
@@ -5082,7 +5197,7 @@
       <c r="C79">
         <v>18</v>
       </c>
-      <c r="D79" s="6" t="str">
+      <c r="D79" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Chalhuddan</v>
       </c>
@@ -5136,7 +5251,7 @@
       <c r="C82">
         <v>13</v>
       </c>
-      <c r="D82" s="6" t="str">
+      <c r="D82" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Chiss</v>
       </c>
@@ -5154,7 +5269,7 @@
       <c r="C83">
         <v>17</v>
       </c>
-      <c r="D83" s="6" t="str">
+      <c r="D83" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Chortose</v>
       </c>
@@ -5208,7 +5323,7 @@
       <c r="C86">
         <v>18</v>
       </c>
-      <c r="D86" s="6" t="str">
+      <c r="D86" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Clabronian</v>
       </c>
@@ -5226,7 +5341,7 @@
       <c r="C87">
         <v>17</v>
       </c>
-      <c r="D87" s="6" t="str">
+      <c r="D87" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Clantanni</v>
       </c>
@@ -5280,7 +5395,7 @@
       <c r="C90">
         <v>17</v>
       </c>
-      <c r="D90" s="6" t="str">
+      <c r="D90" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Colicoid</v>
       </c>
@@ -5298,7 +5413,7 @@
       <c r="C91">
         <v>20</v>
       </c>
-      <c r="D91" s="6" t="str">
+      <c r="D91" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Condluran</v>
       </c>
@@ -5316,7 +5431,7 @@
       <c r="C92">
         <v>17</v>
       </c>
-      <c r="D92" s="6" t="str">
+      <c r="D92" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Conjeni</v>
       </c>
@@ -5334,7 +5449,7 @@
       <c r="C93">
         <v>12</v>
       </c>
-      <c r="D93" s="6" t="str">
+      <c r="D93" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Cosian</v>
       </c>
@@ -5352,7 +5467,7 @@
       <c r="C94">
         <v>19</v>
       </c>
-      <c r="D94" s="6" t="str">
+      <c r="D94" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Coynite</v>
       </c>
@@ -5370,7 +5485,7 @@
       <c r="C95">
         <v>17</v>
       </c>
-      <c r="D95" s="6" t="str">
+      <c r="D95" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Cragmoloid</v>
       </c>
@@ -5424,7 +5539,7 @@
       <c r="C98">
         <v>18</v>
       </c>
-      <c r="D98" s="6" t="str">
+      <c r="D98" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Crulkon</v>
       </c>
@@ -5442,7 +5557,7 @@
       <c r="C99">
         <v>7</v>
       </c>
-      <c r="D99" s="6" t="str">
+      <c r="D99" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Culisetto</v>
       </c>
@@ -5478,7 +5593,7 @@
       <c r="C101">
         <v>18</v>
       </c>
-      <c r="D101" s="6" t="str">
+      <c r="D101" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Cyphari</v>
       </c>
@@ -5514,7 +5629,7 @@
       <c r="C103">
         <v>17</v>
       </c>
-      <c r="D103" s="6" t="str">
+      <c r="D103" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Da-Vlunnian</v>
       </c>
@@ -5550,7 +5665,7 @@
       <c r="C105">
         <v>18</v>
       </c>
-      <c r="D105" s="6" t="str">
+      <c r="D105" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Darshi</v>
       </c>
@@ -5568,7 +5683,7 @@
       <c r="C106">
         <v>18</v>
       </c>
-      <c r="D106" s="6" t="str">
+      <c r="D106" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Dashade</v>
       </c>
@@ -5604,7 +5719,7 @@
       <c r="C108">
         <v>7</v>
       </c>
-      <c r="D108" s="6" t="str">
+      <c r="D108" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Delphidian</v>
       </c>
@@ -5622,7 +5737,7 @@
       <c r="C109">
         <v>18</v>
       </c>
-      <c r="D109" s="6" t="str">
+      <c r="D109" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Demirian</v>
       </c>
@@ -5748,7 +5863,7 @@
       <c r="C116">
         <v>18</v>
       </c>
-      <c r="D116" s="6" t="str">
+      <c r="D116" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Dornean</v>
       </c>
@@ -5766,7 +5881,7 @@
       <c r="C117">
         <v>7</v>
       </c>
-      <c r="D117" s="6" t="str">
+      <c r="D117" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Dowutin</v>
       </c>
@@ -5784,7 +5899,7 @@
       <c r="C118">
         <v>10</v>
       </c>
-      <c r="D118" s="6" t="str">
+      <c r="D118" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Drabatan</v>
       </c>
@@ -5802,7 +5917,7 @@
       <c r="C119">
         <v>18</v>
       </c>
-      <c r="D119" s="6" t="str">
+      <c r="D119" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Dradan</v>
       </c>
@@ -5820,7 +5935,7 @@
       <c r="C120">
         <v>18</v>
       </c>
-      <c r="D120" s="6" t="str">
+      <c r="D120" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Draedan</v>
       </c>
@@ -5838,7 +5953,7 @@
       <c r="C121">
         <v>17</v>
       </c>
-      <c r="D121" s="6" t="str">
+      <c r="D121" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Draethos</v>
       </c>
@@ -5856,7 +5971,7 @@
       <c r="C122">
         <v>19</v>
       </c>
-      <c r="D122" s="6" t="str">
+      <c r="D122" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Drall</v>
       </c>
@@ -5874,7 +5989,7 @@
       <c r="C123">
         <v>17</v>
       </c>
-      <c r="D123" s="6" t="str">
+      <c r="D123" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Drengir</v>
       </c>
@@ -5928,7 +6043,7 @@
       <c r="C126">
         <v>17</v>
       </c>
-      <c r="D126" s="6" t="str">
+      <c r="D126" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Duinuogwuin</v>
       </c>
@@ -5946,7 +6061,7 @@
       <c r="C127">
         <v>18</v>
       </c>
-      <c r="D127" s="6" t="str">
+      <c r="D127" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Dulok</v>
       </c>
@@ -5964,7 +6079,7 @@
       <c r="C128">
         <v>18</v>
       </c>
-      <c r="D128" s="6" t="str">
+      <c r="D128" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Dupei</v>
       </c>
@@ -6018,7 +6133,7 @@
       <c r="C131">
         <v>7</v>
       </c>
-      <c r="D131" s="6" t="str">
+      <c r="D131" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Dybrinthe</v>
       </c>
@@ -6054,7 +6169,7 @@
       <c r="C133">
         <v>17</v>
       </c>
-      <c r="D133" s="6" t="str">
+      <c r="D133" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Echani</v>
       </c>
@@ -6108,7 +6223,7 @@
       <c r="C136">
         <v>18</v>
       </c>
-      <c r="D136" s="6" t="str">
+      <c r="D136" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Elomin</v>
       </c>
@@ -6126,7 +6241,7 @@
       <c r="C137">
         <v>17</v>
       </c>
-      <c r="D137" s="6" t="str">
+      <c r="D137" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Emliy</v>
       </c>
@@ -6144,7 +6259,7 @@
       <c r="C138">
         <v>1</v>
       </c>
-      <c r="D138" s="6" t="str">
+      <c r="D138" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Enso</v>
       </c>
@@ -6180,7 +6295,7 @@
       <c r="C140">
         <v>19</v>
       </c>
-      <c r="D140" s="6" t="str">
+      <c r="D140" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Esoomian</v>
       </c>
@@ -6198,7 +6313,7 @@
       <c r="C141">
         <v>18</v>
       </c>
-      <c r="D141" s="6" t="str">
+      <c r="D141" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Espirion</v>
       </c>
@@ -6216,7 +6331,7 @@
       <c r="C142">
         <v>17</v>
       </c>
-      <c r="D142" s="6" t="str">
+      <c r="D142" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Evereni</v>
       </c>
@@ -6252,7 +6367,7 @@
       <c r="C144">
         <v>18</v>
       </c>
-      <c r="D144" s="6" t="str">
+      <c r="D144" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ezaraa</v>
       </c>
@@ -6288,7 +6403,7 @@
       <c r="C146">
         <v>18</v>
       </c>
-      <c r="D146" s="6" t="str">
+      <c r="D146" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Fantanine</v>
       </c>
@@ -6324,7 +6439,7 @@
       <c r="C148">
         <v>18</v>
       </c>
-      <c r="D148" s="6" t="str">
+      <c r="D148" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Feeorin</v>
       </c>
@@ -6355,12 +6470,12 @@
         <v>723</v>
       </c>
       <c r="B150" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C150">
         <v>17</v>
       </c>
-      <c r="D150" s="6" t="str">
+      <c r="D150" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Fian</v>
       </c>
@@ -6378,7 +6493,7 @@
       <c r="C151">
         <v>17</v>
       </c>
-      <c r="D151" s="6" t="str">
+      <c r="D151" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Filar-Nitzan</v>
       </c>
@@ -6396,7 +6511,7 @@
       <c r="C152">
         <v>18</v>
       </c>
-      <c r="D152" s="6" t="str">
+      <c r="D152" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Fillithar</v>
       </c>
@@ -6414,7 +6529,7 @@
       <c r="C153">
         <v>18</v>
       </c>
-      <c r="D153" s="6" t="str">
+      <c r="D153" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Firrerreo</v>
       </c>
@@ -6432,7 +6547,7 @@
       <c r="C154">
         <v>18</v>
       </c>
-      <c r="D154" s="6" t="str">
+      <c r="D154" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Fisher</v>
       </c>
@@ -6450,7 +6565,7 @@
       <c r="C155">
         <v>18</v>
       </c>
-      <c r="D155" s="6" t="str">
+      <c r="D155" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Fiumarian</v>
       </c>
@@ -6540,7 +6655,7 @@
       <c r="C160">
         <v>17</v>
       </c>
-      <c r="D160" s="6" t="str">
+      <c r="D160" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Frozian</v>
       </c>
@@ -6552,13 +6667,13 @@
       <c r="A161" t="s">
         <v>730</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="4" t="s">
         <v>745</v>
       </c>
       <c r="C161">
         <v>18</v>
       </c>
-      <c r="D161" s="6" t="str">
+      <c r="D161" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Fylari</v>
       </c>
@@ -6576,7 +6691,7 @@
       <c r="C162">
         <v>7</v>
       </c>
-      <c r="D162" s="6" t="str">
+      <c r="D162" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gabdorin</v>
       </c>
@@ -6594,7 +6709,7 @@
       <c r="C163">
         <v>17</v>
       </c>
-      <c r="D163" s="6" t="str">
+      <c r="D163" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Galderian</v>
       </c>
@@ -6666,7 +6781,7 @@
       <c r="C167">
         <v>18</v>
       </c>
-      <c r="D167" s="6" t="str">
+      <c r="D167" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gank</v>
       </c>
@@ -6684,7 +6799,7 @@
       <c r="C168">
         <v>18</v>
       </c>
-      <c r="D168" s="6" t="str">
+      <c r="D168" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gendai</v>
       </c>
@@ -6738,7 +6853,7 @@
       <c r="C171">
         <v>18</v>
       </c>
-      <c r="D171" s="6" t="str">
+      <c r="D171" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ghular</v>
       </c>
@@ -6828,7 +6943,7 @@
       <c r="C176">
         <v>18</v>
       </c>
-      <c r="D176" s="6" t="str">
+      <c r="D176" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gloovan</v>
       </c>
@@ -6864,7 +6979,7 @@
       <c r="C178">
         <v>18</v>
       </c>
-      <c r="D178" s="6" t="str">
+      <c r="D178" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Godoan</v>
       </c>
@@ -6882,7 +6997,7 @@
       <c r="C179">
         <v>18</v>
       </c>
-      <c r="D179" s="6" t="str">
+      <c r="D179" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gorax</v>
       </c>
@@ -6900,7 +7015,7 @@
       <c r="C180">
         <v>17</v>
       </c>
-      <c r="D180" s="6" t="str">
+      <c r="D180" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gormak</v>
       </c>
@@ -6918,7 +7033,7 @@
       <c r="C181">
         <v>18</v>
       </c>
-      <c r="D181" s="6" t="str">
+      <c r="D181" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gorph</v>
       </c>
@@ -6990,7 +7105,7 @@
       <c r="C185">
         <v>14</v>
       </c>
-      <c r="D185" s="6" t="str">
+      <c r="D185" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gozzo</v>
       </c>
@@ -7026,7 +7141,7 @@
       <c r="C187">
         <v>18</v>
       </c>
-      <c r="D187" s="6" t="str">
+      <c r="D187" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gree</v>
       </c>
@@ -7062,7 +7177,7 @@
       <c r="C189">
         <v>18</v>
       </c>
-      <c r="D189" s="6" t="str">
+      <c r="D189" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Grysk</v>
       </c>
@@ -7080,7 +7195,7 @@
       <c r="C190">
         <v>1</v>
       </c>
-      <c r="D190" s="6" t="str">
+      <c r="D190" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Gungan (Ankura)</v>
       </c>
@@ -7165,12 +7280,12 @@
         <v>769</v>
       </c>
       <c r="B195" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C195">
         <v>17</v>
       </c>
-      <c r="D195" s="6" t="str">
+      <c r="D195" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Hassarian</v>
       </c>
@@ -7219,12 +7334,12 @@
         <v>770</v>
       </c>
       <c r="B198" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C198">
         <v>18</v>
       </c>
-      <c r="D198" s="6" t="str">
+      <c r="D198" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Herglic</v>
       </c>
@@ -7237,12 +7352,12 @@
         <v>771</v>
       </c>
       <c r="B199" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C199">
         <v>17</v>
       </c>
-      <c r="D199" s="6" t="str">
+      <c r="D199" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Hiitian</v>
       </c>
@@ -7260,7 +7375,7 @@
       <c r="C200">
         <v>2</v>
       </c>
-      <c r="D200" s="6" t="str">
+      <c r="D200" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Holwuff</v>
       </c>
@@ -7273,12 +7388,12 @@
         <v>772</v>
       </c>
       <c r="B201" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C201">
         <v>18</v>
       </c>
-      <c r="D201" s="6" t="str">
+      <c r="D201" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Hoojib</v>
       </c>
@@ -7291,12 +7406,12 @@
         <v>773</v>
       </c>
       <c r="B202" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C202">
         <v>18</v>
       </c>
-      <c r="D202" s="6" t="str">
+      <c r="D202" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Hoopaloo</v>
       </c>
@@ -7314,7 +7429,7 @@
       <c r="C203">
         <v>6</v>
       </c>
-      <c r="D203" s="6" t="str">
+      <c r="D203" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Hoover</v>
       </c>
@@ -7327,12 +7442,12 @@
         <v>774</v>
       </c>
       <c r="B204" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C204">
         <v>18</v>
       </c>
-      <c r="D204" s="6" t="str">
+      <c r="D204" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Horian</v>
       </c>
@@ -7345,12 +7460,12 @@
         <v>775</v>
       </c>
       <c r="B205" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C205">
         <v>18</v>
       </c>
-      <c r="D205" s="6" t="str">
+      <c r="D205" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Houk</v>
       </c>
@@ -7432,17 +7547,17 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>776</v>
+        <v>1050</v>
       </c>
       <c r="B210" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C210">
         <v>17</v>
       </c>
-      <c r="D210" s="6" t="str">
-        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
-        <v>https://starwars.fandom.com/wiki/Ikkrikkian</v>
+      <c r="D210" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Ikkrukkian</v>
       </c>
       <c r="E210">
         <v>5</v>
@@ -7494,7 +7609,7 @@
       <c r="C213">
         <v>5</v>
       </c>
-      <c r="D213" s="6" t="str">
+      <c r="D213" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Imzig</v>
       </c>
@@ -7504,15 +7619,15 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B214" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C214">
         <v>17</v>
       </c>
-      <c r="D214" s="6" t="str">
+      <c r="D214" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Inleshat</v>
       </c>
@@ -7522,15 +7637,15 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B215" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C215">
         <v>18</v>
       </c>
-      <c r="D215" s="6" t="str">
+      <c r="D215" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Iotran</v>
       </c>
@@ -7594,15 +7709,15 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B219" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C219">
         <v>9</v>
       </c>
-      <c r="D219" s="6" t="str">
+      <c r="D219" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Jaluku</v>
       </c>
@@ -7630,15 +7745,15 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B221" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C221">
         <v>18</v>
       </c>
-      <c r="D221" s="6" t="str">
+      <c r="D221" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Jenet</v>
       </c>
@@ -7648,15 +7763,15 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B222" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C222">
         <v>18</v>
       </c>
-      <c r="D222" s="6" t="str">
+      <c r="D222" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Jilruan</v>
       </c>
@@ -7666,15 +7781,15 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B223" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C223">
         <v>17</v>
       </c>
-      <c r="D223" s="6" t="str">
+      <c r="D223" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Jinda</v>
       </c>
@@ -7684,15 +7799,15 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B224" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C224">
         <v>17</v>
       </c>
-      <c r="D224" s="6" t="str">
+      <c r="D224" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kadrillian</v>
       </c>
@@ -7720,15 +7835,15 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B226" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C226">
         <v>21</v>
       </c>
-      <c r="D226" s="6" t="str">
+      <c r="D226" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kakala</v>
       </c>
@@ -7746,7 +7861,7 @@
       <c r="C227">
         <v>3</v>
       </c>
-      <c r="D227" s="6" t="str">
+      <c r="D227" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kaleesh</v>
       </c>
@@ -7756,15 +7871,15 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B228" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C228">
         <v>18</v>
       </c>
-      <c r="D228" s="6" t="str">
+      <c r="D228" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kalleran</v>
       </c>
@@ -7800,7 +7915,7 @@
       <c r="C230">
         <v>2</v>
       </c>
-      <c r="D230" s="6" t="str">
+      <c r="D230" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kaminoan</v>
       </c>
@@ -7846,15 +7961,15 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B233" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C233">
         <v>17</v>
       </c>
-      <c r="D233" s="6" t="str">
+      <c r="D233" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Katikoot</v>
       </c>
@@ -7926,7 +8041,7 @@
       <c r="C237">
         <v>12</v>
       </c>
-      <c r="D237" s="6" t="str">
+      <c r="D237" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kerkoiden</v>
       </c>
@@ -7936,15 +8051,15 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B238" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C238">
         <v>18</v>
       </c>
-      <c r="D238" s="6" t="str">
+      <c r="D238" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kerrakk</v>
       </c>
@@ -7954,15 +8069,15 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B239" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C239">
         <v>18</v>
       </c>
-      <c r="D239" s="6" t="str">
+      <c r="D239" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Keshian</v>
       </c>
@@ -7972,15 +8087,15 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B240" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C240">
         <v>18</v>
       </c>
-      <c r="D240" s="6" t="str">
+      <c r="D240" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Keshiri</v>
       </c>
@@ -8026,15 +8141,15 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B243" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C243">
         <v>18</v>
       </c>
-      <c r="D243" s="6" t="str">
+      <c r="D243" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ketton</v>
       </c>
@@ -8044,15 +8159,15 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B244" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C244">
         <v>18</v>
       </c>
-      <c r="D244" s="6" t="str">
+      <c r="D244" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Khommite</v>
       </c>
@@ -8062,15 +8177,15 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B245" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C245">
         <v>18</v>
       </c>
-      <c r="D245" s="6" t="str">
+      <c r="D245" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Khormai</v>
       </c>
@@ -8124,7 +8239,7 @@
       <c r="C248">
         <v>12</v>
       </c>
-      <c r="D248" s="6" t="str">
+      <c r="D248" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kindalo</v>
       </c>
@@ -8170,15 +8285,15 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B251" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C251">
         <v>18</v>
       </c>
-      <c r="D251" s="6" t="str">
+      <c r="D251" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kobok</v>
       </c>
@@ -8206,15 +8321,15 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B253" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C253">
         <v>17</v>
       </c>
-      <c r="D253" s="6" t="str">
+      <c r="D253" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kotabi</v>
       </c>
@@ -8232,7 +8347,7 @@
       <c r="C254">
         <v>6</v>
       </c>
-      <c r="D254" s="6" t="str">
+      <c r="D254" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kowakian</v>
       </c>
@@ -8242,15 +8357,15 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B255" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C255">
         <v>18</v>
       </c>
-      <c r="D255" s="6" t="str">
+      <c r="D255" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Krawg</v>
       </c>
@@ -8260,15 +8375,15 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B256" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C256">
         <v>18</v>
       </c>
-      <c r="D256" s="6" t="str">
+      <c r="D256" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Krish</v>
       </c>
@@ -8296,15 +8411,15 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B258" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C258">
         <v>18</v>
       </c>
-      <c r="D258" s="6" t="str">
+      <c r="D258" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kudon</v>
       </c>
@@ -8314,15 +8429,15 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B259" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C259">
         <v>18</v>
       </c>
-      <c r="D259" s="6" t="str">
+      <c r="D259" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Kumumgah</v>
       </c>
@@ -8358,7 +8473,7 @@
       <c r="C261">
         <v>10</v>
       </c>
-      <c r="D261" s="6" t="str">
+      <c r="D261" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Lacertilo</v>
       </c>
@@ -8386,15 +8501,15 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B263" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C263">
         <v>8</v>
       </c>
-      <c r="D263" s="6" t="str">
+      <c r="D263" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Lanai</v>
       </c>
@@ -8476,15 +8591,15 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B268" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C268">
         <v>18</v>
       </c>
-      <c r="D268" s="6" t="str">
+      <c r="D268" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Lepi</v>
       </c>
@@ -8512,15 +8627,15 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B270" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C270">
         <v>18</v>
       </c>
-      <c r="D270" s="6" t="str">
+      <c r="D270" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Livorno</v>
       </c>
@@ -8530,15 +8645,15 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B271" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C271">
         <v>17</v>
       </c>
-      <c r="D271" s="6" t="str">
+      <c r="D271" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Lonto</v>
       </c>
@@ -8566,15 +8681,15 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B273" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C273">
         <v>17</v>
       </c>
-      <c r="D273" s="6" t="str">
+      <c r="D273" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Lucem</v>
       </c>
@@ -8584,15 +8699,15 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B274" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C274">
         <v>18</v>
       </c>
-      <c r="D274" s="6" t="str">
+      <c r="D274" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Lupror</v>
       </c>
@@ -8638,15 +8753,15 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B277" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C277">
         <v>18</v>
       </c>
-      <c r="D277" s="6" t="str">
+      <c r="D277" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Lynna</v>
       </c>
@@ -8664,7 +8779,7 @@
       <c r="C278">
         <v>10</v>
       </c>
-      <c r="D278" s="6" t="str">
+      <c r="D278" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Mairan</v>
       </c>
@@ -8674,15 +8789,15 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B279" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C279">
         <v>4</v>
       </c>
-      <c r="D279" s="6" t="str">
+      <c r="D279" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Mantellian Savrip</v>
       </c>
@@ -8692,15 +8807,15 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B280" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C280">
         <v>18</v>
       </c>
-      <c r="D280" s="6" t="str">
+      <c r="D280" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Martigrade</v>
       </c>
@@ -8710,15 +8825,15 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B281" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C281">
         <v>18</v>
       </c>
-      <c r="D281" s="6" t="str">
+      <c r="D281" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Massassi</v>
       </c>
@@ -8736,7 +8851,7 @@
       <c r="C282">
         <v>7</v>
       </c>
-      <c r="D282" s="6" t="str">
+      <c r="D282" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Maz Kanatas Species</v>
       </c>
@@ -8746,15 +8861,15 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B283" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C283">
         <v>17</v>
       </c>
-      <c r="D283" s="6" t="str">
+      <c r="D283" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Meerian</v>
       </c>
@@ -8826,7 +8941,7 @@
       <c r="C287">
         <v>12</v>
       </c>
-      <c r="D287" s="6" t="str">
+      <c r="D287" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Mikkian</v>
       </c>
@@ -8844,7 +8959,7 @@
       <c r="C288">
         <v>11</v>
       </c>
-      <c r="D288" s="6" t="str">
+      <c r="D288" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Mimbanese</v>
       </c>
@@ -8854,15 +8969,15 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B289" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C289">
         <v>18</v>
       </c>
-      <c r="D289" s="6" t="str">
+      <c r="D289" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Miraluka</v>
       </c>
@@ -8890,15 +9005,15 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B291" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C291">
         <v>18</v>
       </c>
-      <c r="D291" s="6" t="str">
+      <c r="D291" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Moggonite</v>
       </c>
@@ -8962,15 +9077,15 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B295" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C295">
         <v>4</v>
       </c>
-      <c r="D295" s="6" t="str">
+      <c r="D295" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Monnok</v>
       </c>
@@ -8998,15 +9113,15 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B297" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C297">
         <v>18</v>
       </c>
-      <c r="D297" s="6" t="str">
+      <c r="D297" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Moragan</v>
       </c>
@@ -9034,15 +9149,15 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B299" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C299">
         <v>17</v>
       </c>
-      <c r="D299" s="6" t="str">
+      <c r="D299" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Mournish</v>
       </c>
@@ -9070,15 +9185,15 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B301" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C301">
         <v>18</v>
       </c>
-      <c r="D301" s="6" t="str">
+      <c r="D301" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Mriss</v>
       </c>
@@ -9142,15 +9257,15 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B305" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C305">
         <v>18</v>
       </c>
-      <c r="D305" s="6" t="str">
+      <c r="D305" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nalroni</v>
       </c>
@@ -9160,15 +9275,15 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B306" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C306">
         <v>8</v>
       </c>
-      <c r="D306" s="6" t="str">
+      <c r="D306" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Namara</v>
       </c>
@@ -9214,15 +9329,15 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B309" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C309">
         <v>18</v>
       </c>
-      <c r="D309" s="6" t="str">
+      <c r="D309" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nazzar</v>
       </c>
@@ -9250,15 +9365,15 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B311" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C311">
         <v>18</v>
       </c>
-      <c r="D311" s="6" t="str">
+      <c r="D311" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nelvaanian</v>
       </c>
@@ -9276,7 +9391,7 @@
       <c r="C312">
         <v>11</v>
       </c>
-      <c r="D312" s="6" t="str">
+      <c r="D312" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nephran</v>
       </c>
@@ -9330,7 +9445,7 @@
       <c r="C315">
         <v>11</v>
       </c>
-      <c r="D315" s="6" t="str">
+      <c r="D315" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nithorn</v>
       </c>
@@ -9340,15 +9455,15 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B316" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C316">
         <v>8</v>
       </c>
-      <c r="D316" s="6" t="str">
+      <c r="D316" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nobillian</v>
       </c>
@@ -9384,7 +9499,7 @@
       <c r="C318">
         <v>1</v>
       </c>
-      <c r="D318" s="6" t="str">
+      <c r="D318" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nosaurian</v>
       </c>
@@ -9394,15 +9509,15 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B319" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C319">
         <v>18</v>
       </c>
-      <c r="D319" s="6" t="str">
+      <c r="D319" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nothoiin</v>
       </c>
@@ -9412,15 +9527,15 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B320" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C320">
         <v>22</v>
       </c>
-      <c r="D320" s="6" t="str">
+      <c r="D320" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Noti</v>
       </c>
@@ -9438,7 +9553,7 @@
       <c r="C321">
         <v>7</v>
       </c>
-      <c r="D321" s="6" t="str">
+      <c r="D321" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nu-Cosian</v>
       </c>
@@ -9466,15 +9581,15 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B323" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C323">
         <v>18</v>
       </c>
-      <c r="D323" s="6" t="str">
+      <c r="D323" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Nuxan</v>
       </c>
@@ -9484,15 +9599,15 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B324" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C324">
         <v>18</v>
       </c>
-      <c r="D324" s="6" t="str">
+      <c r="D324" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Octani</v>
       </c>
@@ -9510,7 +9625,7 @@
       <c r="C325">
         <v>11</v>
       </c>
-      <c r="D325" s="6" t="str">
+      <c r="D325" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Octeroid</v>
       </c>
@@ -9520,15 +9635,15 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B326" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C326">
         <v>17</v>
       </c>
-      <c r="D326" s="6" t="str">
+      <c r="D326" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ogemite</v>
       </c>
@@ -9538,15 +9653,15 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B327" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C327">
         <v>18</v>
       </c>
-      <c r="D327" s="6" t="str">
+      <c r="D327" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Omwati</v>
       </c>
@@ -9610,15 +9725,15 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B331" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C331">
         <v>23</v>
       </c>
-      <c r="D331" s="6" t="str">
+      <c r="D331" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ootoo</v>
       </c>
@@ -9628,15 +9743,15 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B332" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C332">
         <v>18</v>
       </c>
-      <c r="D332" s="6" t="str">
+      <c r="D332" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Orooturooian</v>
       </c>
@@ -9720,7 +9835,7 @@
       <c r="A337" t="s">
         <v>62</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" t="s">
         <v>404</v>
       </c>
       <c r="C337">
@@ -9780,7 +9895,7 @@
       <c r="C340">
         <v>1</v>
       </c>
-      <c r="D340" s="6" t="str">
+      <c r="D340" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Palliduvan</v>
       </c>
@@ -9826,15 +9941,15 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B343" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C343">
         <v>18</v>
       </c>
-      <c r="D343" s="6" t="str">
+      <c r="D343" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Pastorian</v>
       </c>
@@ -9898,15 +10013,15 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B347" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C347">
         <v>18</v>
       </c>
-      <c r="D347" s="6" t="str">
+      <c r="D347" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Peasle</v>
       </c>
@@ -9916,15 +10031,15 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B348" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C348">
         <v>18</v>
       </c>
-      <c r="D348" s="6" t="str">
+      <c r="D348" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Petrusian</v>
       </c>
@@ -9952,15 +10067,15 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B350" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C350">
         <v>19</v>
       </c>
-      <c r="D350" s="6" t="str">
+      <c r="D350" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Phydolon</v>
       </c>
@@ -9970,15 +10085,15 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B351" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C351">
         <v>23</v>
       </c>
-      <c r="D351" s="6" t="str">
+      <c r="D351" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Pikpik</v>
       </c>
@@ -9988,15 +10103,15 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B352" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C352">
         <v>18</v>
       </c>
-      <c r="D352" s="6" t="str">
+      <c r="D352" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Pkorian</v>
       </c>
@@ -10006,15 +10121,15 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B353" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C353">
         <v>12</v>
       </c>
-      <c r="D353" s="6" t="str">
+      <c r="D353" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Poletec</v>
       </c>
@@ -10024,15 +10139,15 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B354" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C354">
         <v>23</v>
       </c>
-      <c r="D354" s="6" t="str">
+      <c r="D354" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Pooba</v>
       </c>
@@ -10060,15 +10175,15 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B356" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C356">
         <v>18</v>
       </c>
-      <c r="D356" s="6" t="str">
+      <c r="D356" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Qltane</v>
       </c>
@@ -10078,15 +10193,15 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B357" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C357">
         <v>18</v>
       </c>
-      <c r="D357" s="6" t="str">
+      <c r="D357" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Qhuloskian</v>
       </c>
@@ -10132,15 +10247,15 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B360" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C360">
         <v>18</v>
       </c>
-      <c r="D360" s="6" t="str">
+      <c r="D360" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Qubey</v>
       </c>
@@ -10186,15 +10301,15 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B363" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C363">
         <v>18</v>
       </c>
-      <c r="D363" s="6" t="str">
+      <c r="D363" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Rora</v>
       </c>
@@ -10204,15 +10319,15 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B364" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C364">
         <v>21</v>
       </c>
-      <c r="D364" s="6" t="str">
+      <c r="D364" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Rakatan</v>
       </c>
@@ -10240,15 +10355,15 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B366" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C366">
         <v>18</v>
       </c>
-      <c r="D366" s="6" t="str">
+      <c r="D366" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Rattataki</v>
       </c>
@@ -10258,15 +10373,15 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B367" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C367">
         <v>7</v>
       </c>
-      <c r="D367" s="6" t="str">
+      <c r="D367" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Rawanikola</v>
       </c>
@@ -10294,15 +10409,15 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B369" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C369">
         <v>18</v>
       </c>
-      <c r="D369" s="6" t="str">
+      <c r="D369" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Rekk</v>
       </c>
@@ -10312,15 +10427,15 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B370" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C370">
         <v>18</v>
       </c>
-      <c r="D370" s="6" t="str">
+      <c r="D370" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Revwien</v>
       </c>
@@ -10348,15 +10463,15 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B372" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C372">
         <v>18</v>
       </c>
-      <c r="D372" s="6" t="str">
+      <c r="D372" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Rishii</v>
       </c>
@@ -10402,15 +10517,15 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B375" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C375">
         <v>18</v>
       </c>
-      <c r="D375" s="6" t="str">
+      <c r="D375" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ruurian</v>
       </c>
@@ -10420,15 +10535,15 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B376" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C376">
         <v>18</v>
       </c>
-      <c r="D376" s="6" t="str">
+      <c r="D376" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Rybet</v>
       </c>
@@ -10438,15 +10553,15 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B377" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C377">
         <v>18</v>
       </c>
-      <c r="D377" s="6" t="str">
+      <c r="D377" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ryn</v>
       </c>
@@ -10474,15 +10589,15 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B379" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C379">
         <v>15</v>
       </c>
-      <c r="D379" s="6" t="str">
+      <c r="D379" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sakavian</v>
       </c>
@@ -10528,15 +10643,15 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B382" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C382">
         <v>18</v>
       </c>
-      <c r="D382" s="6" t="str">
+      <c r="D382" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sanyassan</v>
       </c>
@@ -10564,15 +10679,15 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B384" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C384">
         <v>18</v>
       </c>
-      <c r="D384" s="6" t="str">
+      <c r="D384" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sarkhai</v>
       </c>
@@ -10582,15 +10697,15 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B385" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C385">
         <v>17</v>
       </c>
-      <c r="D385" s="6" t="str">
+      <c r="D385" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sarravi</v>
       </c>
@@ -10600,15 +10715,15 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
+        <v>951</v>
+      </c>
+      <c r="B386" t="s">
         <v>952</v>
-      </c>
-      <c r="B386" t="s">
-        <v>953</v>
       </c>
       <c r="C386">
         <v>19</v>
       </c>
-      <c r="D386" s="6" t="str">
+      <c r="D386" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sathari</v>
       </c>
@@ -10636,15 +10751,15 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B388" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C388">
         <v>18</v>
       </c>
-      <c r="D388" s="6" t="str">
+      <c r="D388" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Scalvi</v>
       </c>
@@ -10654,15 +10769,15 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B389" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C389">
         <v>17</v>
       </c>
-      <c r="D389" s="6" t="str">
+      <c r="D389" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Segredo</v>
       </c>
@@ -10690,15 +10805,15 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B391" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C391">
         <v>17</v>
       </c>
-      <c r="D391" s="6" t="str">
+      <c r="D391" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Selonian</v>
       </c>
@@ -10708,15 +10823,15 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B392" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C392">
         <v>18</v>
       </c>
-      <c r="D392" s="6" t="str">
+      <c r="D392" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sephi</v>
       </c>
@@ -10734,7 +10849,7 @@
       <c r="C393">
         <v>2</v>
       </c>
-      <c r="D393" s="6" t="str">
+      <c r="D393" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Shadda-Bi-Boran</v>
       </c>
@@ -10762,15 +10877,15 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B395" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C395">
         <v>18</v>
       </c>
-      <c r="D395" s="6" t="str">
+      <c r="D395" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Shani</v>
       </c>
@@ -10852,15 +10967,15 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B400" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C400">
         <v>16</v>
       </c>
-      <c r="D400" s="6" t="str">
+      <c r="D400" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Shydopp</v>
       </c>
@@ -10878,7 +10993,7 @@
       <c r="C401">
         <v>6</v>
       </c>
-      <c r="D401" s="6" t="str">
+      <c r="D401" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sic-Six</v>
       </c>
@@ -10888,15 +11003,15 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B402" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C402">
         <v>18</v>
       </c>
-      <c r="D402" s="6" t="str">
+      <c r="D402" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sikurdian</v>
       </c>
@@ -10924,15 +11039,15 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B404" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C404">
         <v>18</v>
       </c>
-      <c r="D404" s="6" t="str">
+      <c r="D404" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sith</v>
       </c>
@@ -10950,7 +11065,7 @@
       <c r="C405">
         <v>2</v>
       </c>
-      <c r="D405" s="6" t="str">
+      <c r="D405" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Skakoan</v>
       </c>
@@ -11014,15 +11129,15 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B409" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C409">
         <v>17</v>
       </c>
-      <c r="D409" s="6" t="str">
+      <c r="D409" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Soikan</v>
       </c>
@@ -11050,15 +11165,15 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B411" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C411">
         <v>18</v>
       </c>
-      <c r="D411" s="6" t="str">
+      <c r="D411" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Squamatan</v>
       </c>
@@ -11068,15 +11183,15 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B412" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C412">
         <v>18</v>
       </c>
-      <c r="D412" s="6" t="str">
+      <c r="D412" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Squib</v>
       </c>
@@ -11130,7 +11245,7 @@
       <c r="C415">
         <v>8</v>
       </c>
-      <c r="D415" s="6" t="str">
+      <c r="D415" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Suerton</v>
       </c>
@@ -11140,15 +11255,15 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B416" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C416">
         <v>12</v>
       </c>
-      <c r="D416" s="6" t="str">
+      <c r="D416" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Sugi</v>
       </c>
@@ -11230,15 +11345,15 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B421" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C421">
         <v>18</v>
       </c>
-      <c r="D421" s="6" t="str">
+      <c r="D421" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tahnuhna</v>
       </c>
@@ -11248,15 +11363,15 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B422" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C422">
         <v>18</v>
       </c>
-      <c r="D422" s="6" t="str">
+      <c r="D422" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Talid</v>
       </c>
@@ -11266,15 +11381,15 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B423" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C423">
         <v>17</v>
       </c>
-      <c r="D423" s="6" t="str">
+      <c r="D423" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Talortai</v>
       </c>
@@ -11338,15 +11453,15 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B427" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C427">
         <v>18</v>
       </c>
-      <c r="D427" s="6" t="str">
+      <c r="D427" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tarinna</v>
       </c>
@@ -11356,15 +11471,15 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B428" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C428">
         <v>11</v>
       </c>
-      <c r="D428" s="6" t="str">
+      <c r="D428" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tarlafar</v>
       </c>
@@ -11400,7 +11515,7 @@
       <c r="C430">
         <v>7</v>
       </c>
-      <c r="D430" s="6" t="str">
+      <c r="D430" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tarsunt</v>
       </c>
@@ -11410,15 +11525,15 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B431" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C431">
         <v>18</v>
       </c>
-      <c r="D431" s="6" t="str">
+      <c r="D431" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Taung</v>
       </c>
@@ -11428,15 +11543,15 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B432" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C432">
         <v>18</v>
       </c>
-      <c r="D432" s="6" t="str">
+      <c r="D432" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Taurill</v>
       </c>
@@ -11446,15 +11561,15 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B433" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C433">
         <v>17</v>
       </c>
-      <c r="D433" s="6" t="str">
+      <c r="D433" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Taymar</v>
       </c>
@@ -11464,15 +11579,15 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B434" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C434">
         <v>18</v>
       </c>
-      <c r="D434" s="6" t="str">
+      <c r="D434" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tectozin</v>
       </c>
@@ -11500,15 +11615,15 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B436" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C436">
         <v>18</v>
       </c>
-      <c r="D436" s="6" t="str">
+      <c r="D436" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Teek</v>
       </c>
@@ -11536,15 +11651,15 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B438" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C438">
         <v>18</v>
       </c>
-      <c r="D438" s="6" t="str">
+      <c r="D438" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tevellan</v>
       </c>
@@ -11554,15 +11669,15 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B439" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C439">
         <v>23</v>
       </c>
-      <c r="D439" s="6" t="str">
+      <c r="D439" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tharnakan</v>
       </c>
@@ -11626,15 +11741,15 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B443" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C443">
         <v>18</v>
       </c>
-      <c r="D443" s="6" t="str">
+      <c r="D443" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Thradian</v>
       </c>
@@ -11644,15 +11759,15 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B444" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C444">
         <v>18</v>
       </c>
-      <c r="D444" s="6" t="str">
+      <c r="D444" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tissshar</v>
       </c>
@@ -11680,15 +11795,15 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B446" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C446">
         <v>18</v>
       </c>
-      <c r="D446" s="6" t="str">
+      <c r="D446" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Togorian</v>
       </c>
@@ -11734,15 +11849,15 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B449" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C449">
         <v>20</v>
       </c>
-      <c r="D449" s="6" t="str">
+      <c r="D449" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tostonian</v>
       </c>
@@ -11788,15 +11903,15 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B452" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C452">
         <v>18</v>
       </c>
-      <c r="D452" s="6" t="str">
+      <c r="D452" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Trianii</v>
       </c>
@@ -11914,15 +12029,15 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B459" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C459">
         <v>18</v>
       </c>
-      <c r="D459" s="6" t="str">
+      <c r="D459" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Tynnan</v>
       </c>
@@ -12012,7 +12127,7 @@
       <c r="C464">
         <v>2</v>
       </c>
-      <c r="D464" s="6" t="str">
+      <c r="D464" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Umbaran</v>
       </c>
@@ -12022,15 +12137,15 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B465" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C465">
         <v>8</v>
       </c>
-      <c r="D465" s="6" t="str">
+      <c r="D465" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ungrilla</v>
       </c>
@@ -12048,7 +12163,7 @@
       <c r="C466">
         <v>7</v>
       </c>
-      <c r="D466" s="6" t="str">
+      <c r="D466" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Urodel</v>
       </c>
@@ -12076,15 +12191,15 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B468" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C468">
         <v>18</v>
       </c>
-      <c r="D468" s="6" t="str">
+      <c r="D468" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Vagaari</v>
       </c>
@@ -12112,15 +12227,15 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B470" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C470">
         <v>18</v>
       </c>
-      <c r="D470" s="6" t="str">
+      <c r="D470" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Verpine</v>
       </c>
@@ -12130,15 +12245,15 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B471" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C471">
         <v>17</v>
       </c>
-      <c r="D471" s="6" t="str">
+      <c r="D471" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Villarandi</v>
       </c>
@@ -12148,15 +12263,15 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B472" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C472">
         <v>17</v>
       </c>
-      <c r="D472" s="6" t="str">
+      <c r="D472" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Vintian</v>
       </c>
@@ -12184,15 +12299,15 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B474" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C474">
         <v>18</v>
       </c>
-      <c r="D474" s="6" t="str">
+      <c r="D474" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Vodran</v>
       </c>
@@ -12202,15 +12317,15 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B475" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C475">
         <v>18</v>
       </c>
-      <c r="D475" s="6" t="str">
+      <c r="D475" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Vollick</v>
       </c>
@@ -12246,7 +12361,7 @@
       <c r="C477">
         <v>12</v>
       </c>
-      <c r="D477" s="6" t="str">
+      <c r="D477" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Vonomi</v>
       </c>
@@ -12256,15 +12371,15 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B478" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C478">
         <v>19</v>
       </c>
-      <c r="D478" s="6" t="str">
+      <c r="D478" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Vratix</v>
       </c>
@@ -12328,15 +12443,15 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B482" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C482">
         <v>15</v>
       </c>
-      <c r="D482" s="6" t="str">
+      <c r="D482" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Waluna</v>
       </c>
@@ -12346,15 +12461,15 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B483" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C483">
         <v>16</v>
       </c>
-      <c r="D483" s="6" t="str">
+      <c r="D483" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Warthog</v>
       </c>
@@ -12364,15 +12479,15 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B484" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C484">
         <v>9</v>
       </c>
-      <c r="D484" s="6" t="str">
+      <c r="D484" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Wayuning</v>
       </c>
@@ -12418,15 +12533,15 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B487" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C487">
         <v>19</v>
       </c>
-      <c r="D487" s="6" t="str">
+      <c r="D487" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Whaladon</v>
       </c>
@@ -12462,7 +12577,7 @@
       <c r="C489">
         <v>8</v>
       </c>
-      <c r="D489" s="6" t="str">
+      <c r="D489" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Whippomorn</v>
       </c>
@@ -12490,15 +12605,15 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B491" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C491">
         <v>15</v>
       </c>
-      <c r="D491" s="6" t="str">
+      <c r="D491" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Wiste</v>
       </c>
@@ -12516,7 +12631,7 @@
       <c r="C492">
         <v>6</v>
       </c>
-      <c r="D492" s="6" t="str">
+      <c r="D492" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Wol Cabasshite</v>
       </c>
@@ -12544,15 +12659,15 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B494" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C494">
         <v>18</v>
       </c>
-      <c r="D494" s="6" t="str">
+      <c r="D494" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Woostroid</v>
       </c>
@@ -12562,15 +12677,15 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B495" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C495">
         <v>18</v>
       </c>
-      <c r="D495" s="6" t="str">
+      <c r="D495" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Wroonian</v>
       </c>
@@ -12598,15 +12713,15 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B497" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C497">
         <v>18</v>
       </c>
-      <c r="D497" s="6" t="str">
+      <c r="D497" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Xan</v>
       </c>
@@ -12616,15 +12731,15 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B498" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C498">
         <v>18</v>
       </c>
-      <c r="D498" s="6" t="str">
+      <c r="D498" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Xendekian</v>
       </c>
@@ -12660,7 +12775,7 @@
       <c r="C500">
         <v>8</v>
       </c>
-      <c r="D500" s="6" t="str">
+      <c r="D500" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Xidec</v>
       </c>
@@ -12670,15 +12785,15 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B501" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C501">
         <v>18</v>
       </c>
-      <c r="D501" s="6" t="str">
+      <c r="D501" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ximpi</v>
       </c>
@@ -12688,15 +12803,15 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B502" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C502">
         <v>18</v>
       </c>
-      <c r="D502" s="6" t="str">
+      <c r="D502" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Xot</v>
       </c>
@@ -12742,15 +12857,15 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B505" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C505">
         <v>18</v>
       </c>
-      <c r="D505" s="6" t="str">
+      <c r="D505" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Yinchorri</v>
       </c>
@@ -12768,7 +12883,7 @@
       <c r="C506">
         <v>5</v>
       </c>
-      <c r="D506" s="6" t="s">
+      <c r="D506" t="s">
         <v>496</v>
       </c>
       <c r="E506">
@@ -12777,15 +12892,15 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B507" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C507">
         <v>19</v>
       </c>
-      <c r="D507" s="6" t="str">
+      <c r="D507" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Ysanna</v>
       </c>
@@ -12849,15 +12964,15 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B511" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C511">
         <v>15</v>
       </c>
-      <c r="D511" s="6" t="str">
+      <c r="D511" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Zeffo</v>
       </c>
@@ -12867,15 +12982,15 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B512" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C512">
         <v>18</v>
       </c>
-      <c r="D512" s="6" t="str">
+      <c r="D512" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Zeltron</v>
       </c>
@@ -12911,7 +13026,7 @@
       <c r="C514">
         <v>3</v>
       </c>
-      <c r="D514" s="6" t="str">
+      <c r="D514" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Zeuol</v>
       </c>
@@ -12939,15 +13054,15 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B516" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C516">
         <v>18</v>
       </c>
-      <c r="D516" s="6" t="str">
+      <c r="D516" t="str">
         <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
         <v>https://starwars.fandom.com/wiki/Zixon</v>
       </c>
@@ -12991,13 +13106,374 @@
         <v>4</v>
       </c>
     </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C519">
+        <v>8</v>
+      </c>
+      <c r="D519" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Argiopid</v>
+      </c>
+      <c r="E519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C520">
+        <v>18</v>
+      </c>
+      <c r="D520" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Arobernos</v>
+      </c>
+      <c r="E520">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C521">
+        <v>9</v>
+      </c>
+      <c r="D521" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Bestoonian</v>
+      </c>
+      <c r="E521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C522">
+        <v>9</v>
+      </c>
+      <c r="D522" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Frejuke</v>
+      </c>
+      <c r="E522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C523">
+        <v>8</v>
+      </c>
+      <c r="D523" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Idalowd</v>
+      </c>
+      <c r="E523">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C524">
+        <v>8</v>
+      </c>
+      <c r="D524" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Khamarill</v>
+      </c>
+      <c r="E524">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C525">
+        <v>8</v>
+      </c>
+      <c r="D525" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Lukovel</v>
+      </c>
+      <c r="E525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C526">
+        <v>18</v>
+      </c>
+      <c r="D526" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Sirroning</v>
+      </c>
+      <c r="E526">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C527">
+        <v>9</v>
+      </c>
+      <c r="D527" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Skilla</v>
+      </c>
+      <c r="E527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C528">
+        <v>9</v>
+      </c>
+      <c r="D528" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Yokka</v>
+      </c>
+      <c r="E528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C529">
+        <v>21</v>
+      </c>
+      <c r="D529" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Jillsarian</v>
+      </c>
+      <c r="E529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C530">
+        <v>23</v>
+      </c>
+      <c r="D530" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Malangsha</v>
+      </c>
+      <c r="E530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C531">
+        <v>20</v>
+      </c>
+      <c r="D531" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Nogratu</v>
+      </c>
+      <c r="E531">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C532">
+        <v>16</v>
+      </c>
+      <c r="D532" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Querm Rybet</v>
+      </c>
+      <c r="E532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C533">
+        <v>20</v>
+      </c>
+      <c r="D533" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Thuggatoris</v>
+      </c>
+      <c r="E533">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C534">
+        <v>23</v>
+      </c>
+      <c r="D534" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Zekodoan</v>
+      </c>
+      <c r="E534">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C535">
+        <v>18</v>
+      </c>
+      <c r="D535" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Sibettan</v>
+      </c>
+      <c r="E535">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C536">
+        <v>18</v>
+      </c>
+      <c r="D536" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Surpossian</v>
+      </c>
+      <c r="E536">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C537">
+        <v>18</v>
+      </c>
+      <c r="D537" s="5" t="str">
+        <f>"https://starwars.fandom.com/wiki/"&amp;PROPER(SUBSTITUTE(Table1[[#This Row],[name]], "'", ""))</f>
+        <v>https://starwars.fandom.com/wiki/Voridsec</v>
+      </c>
+      <c r="E537">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B325" r:id="rId1" xr:uid="{053FA2DD-ABE2-0B4F-ACE6-4C59C3FFE908}"/>
+    <hyperlink ref="B519" r:id="rId2" xr:uid="{5FBA5F68-DDE7-5449-9A17-91B79D4D6E67}"/>
+    <hyperlink ref="B520" r:id="rId3" xr:uid="{2380236F-59E9-7F48-ACB5-94310CB444A0}"/>
+    <hyperlink ref="B521" r:id="rId4" xr:uid="{30C61AFD-49AC-004E-A9ED-D2BE1D6F5E76}"/>
+    <hyperlink ref="B522" r:id="rId5" xr:uid="{94FC6BC2-406A-3945-A1F2-625469C40DDA}"/>
+    <hyperlink ref="B523" r:id="rId6" xr:uid="{35268A72-CC81-B74E-B734-E6CAEA7D56A4}"/>
+    <hyperlink ref="B529" r:id="rId7" xr:uid="{D354A669-6293-0C4B-A94A-D3A9914C5A78}"/>
+    <hyperlink ref="B524" r:id="rId8" xr:uid="{906FA9B0-16F4-0A4F-A027-5DF8BEC78511}"/>
+    <hyperlink ref="B525" r:id="rId9" xr:uid="{C6EF8D81-D22E-C84A-91A0-9AE7B2835F98}"/>
+    <hyperlink ref="B530" r:id="rId10" xr:uid="{6513CAA2-C794-A248-89EA-3F61DA97353C}"/>
+    <hyperlink ref="B531" r:id="rId11" xr:uid="{A2B95FAF-9D1B-5D40-816B-54FEEA11A66C}"/>
+    <hyperlink ref="B532" r:id="rId12" xr:uid="{91B1F78B-D35F-C94C-BC73-6DC7D6F353EE}"/>
+    <hyperlink ref="B535" r:id="rId13" xr:uid="{80B35F66-AA23-9746-945D-EE089B4F9ECD}"/>
+    <hyperlink ref="B526" r:id="rId14" xr:uid="{EC0F3D6D-1384-5C48-A036-DD4EB3C619DB}"/>
+    <hyperlink ref="B527" r:id="rId15" xr:uid="{3AD83B3F-B4CF-5042-A0A4-4909F3BCF5B9}"/>
+    <hyperlink ref="B536" r:id="rId16" xr:uid="{D070DE10-F521-F345-B5A9-E6434970D104}"/>
+    <hyperlink ref="B533" r:id="rId17" xr:uid="{09C2D8B3-478A-2146-B346-67B2F0BF23D9}"/>
+    <hyperlink ref="B537" r:id="rId18" xr:uid="{368B409A-7D09-E445-A04E-37CA5E2C3D8E}"/>
+    <hyperlink ref="B528" r:id="rId19" xr:uid="{455F1F91-BD70-2543-8119-9AA0523E5B37}"/>
+    <hyperlink ref="B534" r:id="rId20" xr:uid="{0992D3A8-BB97-1349-A29D-BC116E9F5BB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>